--- a/assets/files/excel/3419.xlsx
+++ b/assets/files/excel/3419.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="OXNBRm1Ve5U9aqTN2bl13J/Fd0fudtm3D2YRcbTxEgIW7gjkErGCufMXQJ9cA5X2J+WusSMe2Kc3Yj9WTmJu/g==" workbookSaltValue="8lbAIBueWSzLBaHB4OFYhQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="wNfXAs4C8htxO8VvgpHm6V6qhLoJGmwCHNxwFssNng+03WHb+g5vQV7vjC0mhI1HxIO3VDkJ2W043hlLS0w/xg==" workbookSaltValue="WlxER8cBuyQn5nNhx70dIA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2079,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="str">
         <f>"Плата за километр поездки свыше "&amp;TEXT(B9,"#")&amp;" км, руб."</f>
         <v>Плата за километр поездки свыше  км, руб.</v>
@@ -2238,8 +2238,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
